--- a/src/Records.xlsx
+++ b/src/Records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G478"/>
+  <dimension ref="A1:G490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7557,6 +7557,190 @@
         </is>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project : </t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>template</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Created : </t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>22:35:36.386017</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>EMAIL_ID</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>CERTIFICATE_CREATED</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>MAIL_SENT</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>participant_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>nlbyqzbqigcs,qvaace@kiabws.com</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>nlbyqz,bqigcsqvaace@kiabws.com</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>nlbyqzb,qigcsq,vaace@kiabws.com</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/Records.xlsx
+++ b/src/Records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G490"/>
+  <dimension ref="A1:G502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7741,6 +7741,190 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project : </t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>template</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Created : </t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>22:40:19.624638</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>EMAIL_ID</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>CERTIFICATE_CREATED</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>MAIL_SENT</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>participant_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>nlbyqzbqigcs,qvaace@kiabws.com</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>nlbyqz,bqigcsqvaace@kiabws.com</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>nlbyqzb,qigcsq,vaace@kiabws.com</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/Records.xlsx
+++ b/src/Records.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G502"/>
+  <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7925,6 +7925,1140 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project : </t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>template</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Created : </t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>22:55:32.078758</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>EMAIL_ID</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>CERTIFICATE_CREATED</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>MAIL_SENT</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>participant_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>nlbyqzbqigcsqvaace@kiabws.com</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>nlbyqzbqigcsqvaace@kiabws.com</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>nlbyqzbqigcsqvaace@kiabws.com</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project : </t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>template</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Created : </t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>23:00:14.145369</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>EMAIL_ID</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>CERTIFICATE_CREATED</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>MAIL_SENT</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>participant_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project : </t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>template</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Created : </t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>23:01:10.484482</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>EMAIL_ID</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>CERTIFICATE_CREATED</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>MAIL_SENT</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>participant_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>NH517B1CYF62984</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>QB65D3FZMH62986</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>KO26F6XLZF62987</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project : </t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>template</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Created : </t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>23:01:21.374717</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>EMAIL_ID</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>CERTIFICATE_CREATED</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>MAIL_SENT</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>participant_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>NH517B1CYF62984</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>QB65D3FZMH62986</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>KO26F6XLZF62987</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project : </t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>template</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Created : </t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>23:01:33.615175</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>EMAIL_ID</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>CERTIFICATE_CREATED</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>MAIL_SENT</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>participant_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>gdhgglpnlcnoaxrrad@miucce.com</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project : </t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>template</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Created : </t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>23:24:33.022868</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>EMAIL_ID</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>CERTIFICATE_CREATED</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>MAIL_SENT</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>participant_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>tohzslnx@firste.ml</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>tohzslnx@firste.ml</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>tohzslnx@firste.ml</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
